--- a/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2ADCB8-A6CA-4523-8F9B-0B13606F594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{921962AE-0CE8-43CC-8D5E-962E9B64312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DFE652A-A080-4C04-8B47-D08151D3FBCB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E2B639E-2EA7-4D9B-88B3-B7C0F594BCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="239">
   <si>
     <t>Población según el por que no pagarían para reducir la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 37,19%)</t>
   </si>
@@ -77,667 +77,679 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,47%</t>
+    <t>16,51%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1152,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF0B8F5-3F62-4DA9-8186-140948649B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24DFEEB-3E74-4443-9F6F-196D2CC947A7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1803,13 +1815,13 @@
         <v>7480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -1818,13 +1830,13 @@
         <v>16163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1895,10 +1907,10 @@
         <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1907,13 +1919,13 @@
         <v>2488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1922,13 +1934,13 @@
         <v>8865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1955,13 @@
         <v>20355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1958,13 +1970,13 @@
         <v>13453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -1973,13 +1985,13 @@
         <v>33808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2006,13 @@
         <v>30302</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2009,10 +2021,10 @@
         <v>18662</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>128</v>
@@ -2359,7 +2371,7 @@
         <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2368,13 +2380,13 @@
         <v>11038</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2383,13 +2395,13 @@
         <v>30745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2416,13 @@
         <v>9094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -2419,13 +2431,13 @@
         <v>14446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -2434,13 +2446,13 @@
         <v>23540</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,10 +2523,10 @@
         <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -2523,13 +2535,13 @@
         <v>15784</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -2538,13 +2550,13 @@
         <v>34683</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2571,13 @@
         <v>65430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -2574,13 +2586,13 @@
         <v>55798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>169</v>
@@ -2589,13 +2601,13 @@
         <v>121227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2622,13 @@
         <v>110940</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>148</v>
@@ -2625,13 +2637,13 @@
         <v>94975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
@@ -2640,13 +2652,13 @@
         <v>205915</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2673,13 @@
         <v>48282</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -2676,13 +2688,13 @@
         <v>36523</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>111</v>
@@ -2691,13 +2703,13 @@
         <v>84805</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2724,13 @@
         <v>27741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -2727,13 +2739,13 @@
         <v>31459</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -2742,13 +2754,13 @@
         <v>59200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2816,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921962AE-0CE8-43CC-8D5E-962E9B64312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26602305-5C9E-4180-B7E4-0DF2F1EEBC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E2B639E-2EA7-4D9B-88B3-B7C0F594BCDC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47B8CCC4-ADE9-4484-BDFD-4F9EED0CD5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="236">
   <si>
     <t>Población según el por que no pagarían para reducir la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 37,19%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,685 +71,676 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>5,19%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>8,9%</t>
   </si>
   <si>
     <t>30,41%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1164,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24DFEEB-3E74-4443-9F6F-196D2CC947A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73460AD6-F1D4-4224-B4D6-8968CAF5ACD2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>872</v>
+        <v>728</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1300,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>727</v>
+        <v>912</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1315,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1333,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>4350</v>
+        <v>6898</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1348,10 +1339,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>6411</v>
+        <v>4757</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1366,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>10761</v>
+        <v>11654</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1384,10 +1375,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>6502</v>
+        <v>8164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1399,10 +1390,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>8207</v>
+        <v>6949</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1417,7 +1408,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>14708</v>
+        <v>15113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1435,10 +1426,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>3421</v>
+        <v>5735</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1450,10 +1441,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>5947</v>
+        <v>3326</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1468,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>9367</v>
+        <v>9061</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1486,10 +1477,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>1661</v>
+        <v>2255</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1501,10 +1492,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2315</v>
+        <v>1900</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1519,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>3975</v>
+        <v>4155</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1537,25 +1528,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23780</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>34</v>
       </c>
-      <c r="D9" s="7">
-        <v>16805</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>47</v>
-      </c>
       <c r="I9" s="7">
-        <v>23606</v>
+        <v>17843</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -1570,7 +1561,7 @@
         <v>81</v>
       </c>
       <c r="N9" s="7">
-        <v>40411</v>
+        <v>41623</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -1590,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5658</v>
+        <v>4676</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1605,10 +1596,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>4592</v>
+        <v>5880</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1623,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>10250</v>
+        <v>10556</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1641,10 +1632,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>21705</v>
+        <v>13457</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1656,10 +1647,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>12848</v>
+        <v>23843</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1674,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>34553</v>
+        <v>37301</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1692,10 +1683,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>24321</v>
+        <v>27388</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1707,10 +1698,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I12" s="7">
-        <v>27962</v>
+        <v>24699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1725,7 +1716,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>52283</v>
+        <v>52088</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1743,10 +1734,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10525</v>
+        <v>4661</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -1758,10 +1749,10 @@
         <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>4906</v>
+        <v>10259</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -1776,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>15432</v>
+        <v>14920</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>94</v>
@@ -1794,10 +1785,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>8683</v>
+        <v>7340</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -1809,10 +1800,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>7480</v>
+        <v>8864</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -1827,7 +1818,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>16163</v>
+        <v>16204</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -1845,25 +1836,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7">
+        <v>57523</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>110</v>
       </c>
-      <c r="D15" s="7">
-        <v>70892</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>95</v>
-      </c>
       <c r="I15" s="7">
-        <v>57789</v>
+        <v>73546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -1878,7 +1869,7 @@
         <v>205</v>
       </c>
       <c r="N15" s="7">
-        <v>128681</v>
+        <v>131069</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1898,49 +1889,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2446</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
-        <v>6377</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
       <c r="I16" s="7">
-        <v>2488</v>
+        <v>6808</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>8865</v>
+        <v>9255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,49 +1940,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14746</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
-        <v>20355</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
       <c r="I17" s="7">
-        <v>13453</v>
+        <v>22313</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>33808</v>
+        <v>37059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,49 +1991,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18449</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="7">
         <v>41</v>
       </c>
-      <c r="D18" s="7">
-        <v>30302</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="7">
-        <v>27</v>
-      </c>
       <c r="I18" s="7">
-        <v>18662</v>
+        <v>31366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
       </c>
       <c r="N18" s="7">
-        <v>48964</v>
+        <v>49815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,49 +2042,49 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13751</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="7">
-        <v>14629</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
       <c r="I19" s="7">
-        <v>14632</v>
+        <v>13849</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>29261</v>
+        <v>27601</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,49 +2093,49 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7037</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="7">
         <v>9</v>
       </c>
-      <c r="D20" s="7">
-        <v>8304</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
       <c r="I20" s="7">
-        <v>7218</v>
+        <v>8169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>15522</v>
+        <v>15206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>56430</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>98</v>
       </c>
-      <c r="D21" s="7">
-        <v>79967</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>75</v>
-      </c>
       <c r="I21" s="7">
-        <v>56454</v>
+        <v>82506</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2186,7 +2177,7 @@
         <v>173</v>
       </c>
       <c r="N21" s="7">
-        <v>136420</v>
+        <v>138936</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2200,55 +2191,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7930</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="7">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
-        <v>5992</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
       <c r="I22" s="7">
-        <v>7976</v>
+        <v>6251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>13969</v>
+        <v>14181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,49 +2248,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7">
+        <v>41567</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="7">
         <v>26</v>
       </c>
-      <c r="D23" s="7">
-        <v>19020</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="7">
-        <v>24</v>
-      </c>
       <c r="I23" s="7">
-        <v>23085</v>
+        <v>20058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
       </c>
       <c r="N23" s="7">
-        <v>42104</v>
+        <v>61625</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,49 +2299,49 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>40587</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="7">
         <v>61</v>
       </c>
-      <c r="D24" s="7">
-        <v>49815</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="7">
-        <v>57</v>
-      </c>
       <c r="I24" s="7">
-        <v>40144</v>
+        <v>52324</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>118</v>
       </c>
       <c r="N24" s="7">
-        <v>89959</v>
+        <v>92911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,49 +2350,49 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10674</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="7">
         <v>22</v>
       </c>
-      <c r="D25" s="7">
-        <v>19708</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="7">
-        <v>15</v>
-      </c>
       <c r="I25" s="7">
-        <v>11038</v>
+        <v>18797</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>30745</v>
+        <v>29471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,28 +2401,28 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13649</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7">
         <v>11</v>
       </c>
-      <c r="D26" s="7">
-        <v>9094</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="7">
-        <v>21</v>
-      </c>
       <c r="I26" s="7">
-        <v>14446</v>
+        <v>8948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>191</v>
@@ -2443,7 +2434,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="7">
-        <v>23540</v>
+        <v>22597</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>193</v>
@@ -2461,25 +2452,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>127</v>
+      </c>
+      <c r="D27" s="7">
+        <v>114406</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>128</v>
       </c>
-      <c r="D27" s="7">
-        <v>103628</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>127</v>
-      </c>
       <c r="I27" s="7">
-        <v>96689</v>
+        <v>106378</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -2494,7 +2485,7 @@
         <v>255</v>
       </c>
       <c r="N27" s="7">
-        <v>200317</v>
+        <v>220784</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2514,25 +2505,25 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" s="7">
-        <v>18899</v>
+        <v>15781</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H28" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I28" s="7">
-        <v>15784</v>
+        <v>19851</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>198</v>
@@ -2541,22 +2532,22 @@
         <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
       </c>
       <c r="N28" s="7">
-        <v>34683</v>
+        <v>35632</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,10 +2556,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="7">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7">
-        <v>65430</v>
+        <v>76668</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>203</v>
@@ -2580,10 +2571,10 @@
         <v>205</v>
       </c>
       <c r="H29" s="7">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I29" s="7">
-        <v>55798</v>
+        <v>70971</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>206</v>
@@ -2598,16 +2589,16 @@
         <v>169</v>
       </c>
       <c r="N29" s="7">
-        <v>121227</v>
+        <v>147639</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,10 +2607,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="7">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D30" s="7">
-        <v>110940</v>
+        <v>94588</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>211</v>
@@ -2631,10 +2622,10 @@
         <v>213</v>
       </c>
       <c r="H30" s="7">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I30" s="7">
-        <v>94975</v>
+        <v>115337</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>214</v>
@@ -2649,16 +2640,16 @@
         <v>301</v>
       </c>
       <c r="N30" s="7">
-        <v>205915</v>
+        <v>209926</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2658,49 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
+        <v>53</v>
+      </c>
+      <c r="D31" s="7">
+        <v>34821</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="7">
         <v>58</v>
       </c>
-      <c r="D31" s="7">
-        <v>48282</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="H31" s="7">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7">
-        <v>36523</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>111</v>
       </c>
       <c r="N31" s="7">
-        <v>84805</v>
+        <v>81054</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +2709,49 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <v>30281</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="7">
         <v>37</v>
       </c>
-      <c r="D32" s="7">
-        <v>27741</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="I32" s="7">
+        <v>27881</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H32" s="7">
-        <v>47</v>
-      </c>
-      <c r="I32" s="7">
-        <v>31459</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
       </c>
       <c r="N32" s="7">
-        <v>59200</v>
+        <v>58162</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,25 +2760,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>344</v>
+      </c>
+      <c r="D33" s="7">
+        <v>252140</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>370</v>
       </c>
-      <c r="D33" s="7">
-        <v>271292</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>344</v>
-      </c>
       <c r="I33" s="7">
-        <v>234538</v>
+        <v>280272</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -2802,7 +2793,7 @@
         <v>714</v>
       </c>
       <c r="N33" s="7">
-        <v>505830</v>
+        <v>532412</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -2816,7 +2807,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
